--- a/biology/Zoologie/Faux-cuivré_numide/Faux-cuivré_numide.xlsx
+++ b/biology/Zoologie/Faux-cuivré_numide/Faux-cuivré_numide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_numide</t>
+          <t>Faux-cuivré_numide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis siphax
 Le Faux-cuivré numide (Cigaritis siphax) est un insecte lépidoptère de la famille des Lycaenidae de la sous-famille des Aphnaeinae, du genre Cigaritis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_numide</t>
+          <t>Faux-cuivré_numide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis siphax nommé par Hippolyte Lucas (1814-1899) en 1849.
-Synonymes : Zerythis siphax Lucas, 1849[1].
+Synonymes : Zerythis siphax Lucas, 1849.
 Sa ressemblance avec Cigaritis zohra pourrait faire penser qu'il serait une sous-espèce Cigaritis zohra siphax ou Cigaritis zohra orientalis Riley, 1925.
-Noms vernaculaires
-Le Faux-cuivré numide se nomme Common Silver-line en anglais.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_numide</t>
+          <t>Faux-cuivré_numide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Faux-cuivré numide est un très petit papillon à queues courtes, deux à chaque aile postérieures, présentant un dessus orange vif à discrète bordure marron et orné de quelques points foncés.
-Le verso présente des dessins marron sur un fond orange aux antérieures et marron aux postérieures.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré numide se nomme Common Silver-line en anglais.
 </t>
         </is>
       </c>
@@ -561,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_numide</t>
+          <t>Faux-cuivré_numide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,15 +593,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il volerait en  trois générations entre mars et octobre[2].
-Plantes hôtes
-Ce sont des Cistus[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux-cuivré numide est un très petit papillon à queues courtes, deux à chaque aile postérieures, présentant un dessus orange vif à discrète bordure marron et orné de quelques points foncés.
+Le verso présente des dessins marron sur un fond orange aux antérieures et marron aux postérieures.
 </t>
         </is>
       </c>
@@ -595,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faux-cuivr%C3%A9_numide</t>
+          <t>Faux-cuivré_numide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +627,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il volerait en  trois générations entre mars et octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_numide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_numide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Cistus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_numide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_numide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Algérie et en Tunisie[1].
-Biotope
-Il réside sur collines sèches à Cistus[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Algérie et en Tunisie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_numide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_numide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur collines sèches à Cistus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux-cuivré_numide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-cuivr%C3%A9_numide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
